--- a/Pregame/1. ELICITACION/1.3 HISTORIA DE USUSARIO/G4_HistoriasDeUsuario_A6_29022.xlsx
+++ b/Pregame/1. ELICITACION/1.3 HISTORIA DE USUSARIO/G4_HistoriasDeUsuario_A6_29022.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crist\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crist\Desktop\29022_G4_METDS\Pregame\1. ELICITACION\1.3 HISTORIA DE USUSARIO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8DB5156C-ECEF-454D-A446-1ADD520DDB69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F035028-EADA-4674-AEF3-42E361D57C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="66">
   <si>
     <t>Matriz de Marco de Trabajo de HU</t>
   </si>
@@ -84,9 +84,6 @@
   </si>
   <si>
     <t xml:space="preserve">NOMBRE DE HISTORIA </t>
-  </si>
-  <si>
-    <t>REQ001</t>
   </si>
   <si>
     <t>Alta</t>
@@ -922,71 +919,61 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1001,32 +988,42 @@
     <xf numFmtId="0" fontId="14" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1368,8 +1365,8 @@
   </sheetPr>
   <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="56" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1561,25 +1558,25 @@
     <row r="6" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C6" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="50" t="s">
-        <v>48</v>
-      </c>
-      <c r="E6" s="50" t="s">
-        <v>34</v>
-      </c>
       <c r="F6" s="50" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G6" s="50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H6" s="50" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I6" s="50">
         <v>5</v>
@@ -1588,17 +1585,17 @@
         <v>45966</v>
       </c>
       <c r="K6" s="50" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L6" s="50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M6" s="50" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N6" s="50"/>
       <c r="O6" s="50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
@@ -1615,25 +1612,25 @@
     <row r="7" spans="1:26" ht="183" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C7" s="50" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D7" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="50" t="s">
-        <v>50</v>
-      </c>
       <c r="F7" s="50" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G7" s="50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H7" s="50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I7" s="50">
         <v>20</v>
@@ -1642,17 +1639,17 @@
         <v>45976</v>
       </c>
       <c r="K7" s="50" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L7" s="50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M7" s="50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N7" s="50"/>
       <c r="O7" s="50" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
@@ -1669,25 +1666,25 @@
     <row r="8" spans="1:26" ht="138" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="50" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C8" s="52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D8" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="52" t="s">
-        <v>53</v>
-      </c>
       <c r="F8" s="50" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G8" s="52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H8" s="52" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I8" s="52">
         <v>18</v>
@@ -1696,17 +1693,17 @@
         <v>45979</v>
       </c>
       <c r="K8" s="52" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L8" s="52" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M8" s="52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N8" s="52"/>
       <c r="O8" s="52" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
@@ -1723,25 +1720,25 @@
     <row r="9" spans="1:26" ht="136.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="54" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C9" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="50" t="s">
-        <v>59</v>
-      </c>
       <c r="E9" s="50" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F9" s="50" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G9" s="50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H9" s="50" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I9" s="50">
         <v>14</v>
@@ -1750,17 +1747,17 @@
         <v>45983</v>
       </c>
       <c r="K9" s="50" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L9" s="50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M9" s="50" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N9" s="50"/>
       <c r="O9" s="50" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
@@ -1998,7 +1995,7 @@
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
       <c r="M18" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N18" s="7"/>
       <c r="O18" s="12"/>
@@ -2278,10 +2275,10 @@
       <c r="I28" s="13"/>
       <c r="J28" s="4"/>
       <c r="K28" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L28" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M28" s="4"/>
       <c r="N28" s="4"/>
@@ -2310,10 +2307,10 @@
       <c r="I29" s="13"/>
       <c r="J29" s="4"/>
       <c r="K29" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L29" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M29" s="4"/>
       <c r="N29" s="4"/>
@@ -2342,10 +2339,10 @@
       <c r="I30" s="13"/>
       <c r="J30" s="4"/>
       <c r="K30" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L30" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M30" s="4"/>
       <c r="N30" s="4"/>
@@ -2375,7 +2372,7 @@
       <c r="J31" s="4"/>
       <c r="K31" s="14"/>
       <c r="L31" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
@@ -29528,7 +29525,9 @@
   </sheetPr>
   <dimension ref="A2:Z1013"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.69921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -29554,8 +29553,8 @@
       <c r="F5" s="17"/>
     </row>
     <row r="6" spans="1:26" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="73" t="s">
-        <v>24</v>
+      <c r="B6" s="93" t="s">
+        <v>23</v>
       </c>
       <c r="C6" s="56"/>
       <c r="D6" s="56"/>
@@ -29624,12 +29623,12 @@
         <v>1</v>
       </c>
       <c r="D9" s="27"/>
-      <c r="E9" s="74" t="s">
-        <v>25</v>
+      <c r="E9" s="91" t="s">
+        <v>24</v>
       </c>
       <c r="F9" s="57"/>
       <c r="G9" s="27"/>
-      <c r="H9" s="74" t="s">
+      <c r="H9" s="91" t="s">
         <v>11</v>
       </c>
       <c r="I9" s="57"/>
@@ -29645,18 +29644,18 @@
     <row r="10" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="25"/>
       <c r="C10" s="30" t="s">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="D10" s="31"/>
-      <c r="E10" s="75" t="e">
+      <c r="E10" s="92" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O18,5,0)</f>
-        <v>#N/A</v>
+        <v>Administrador</v>
       </c>
       <c r="F10" s="57"/>
       <c r="G10" s="32"/>
-      <c r="H10" s="75" t="e">
+      <c r="H10" s="92" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O18,11,0)</f>
-        <v>#N/A</v>
+        <v>Pendiente</v>
       </c>
       <c r="I10" s="57"/>
       <c r="J10" s="32"/>
@@ -29700,16 +29699,16 @@
       <c r="A12" s="18"/>
       <c r="B12" s="25"/>
       <c r="C12" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" s="31"/>
-      <c r="E12" s="74" t="s">
+      <c r="E12" s="91" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="57"/>
       <c r="G12" s="32"/>
-      <c r="H12" s="74" t="s">
-        <v>27</v>
+      <c r="H12" s="91" t="s">
+        <v>26</v>
       </c>
       <c r="I12" s="57"/>
       <c r="J12" s="32"/>
@@ -29733,20 +29732,20 @@
     <row r="13" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="18"/>
       <c r="B13" s="25"/>
-      <c r="C13" s="30" t="e">
+      <c r="C13" s="30">
         <f>VLOOKUP('Historia de Usuario'!C10,'Formato descripción HU'!B6:O18,8,0)</f>
-        <v>#N/A</v>
+        <v>5</v>
       </c>
       <c r="D13" s="31"/>
-      <c r="E13" s="75" t="e">
+      <c r="E13" s="92" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O18,10,0)</f>
-        <v>#N/A</v>
+        <v>Alta</v>
       </c>
       <c r="F13" s="57"/>
       <c r="G13" s="32"/>
-      <c r="H13" s="75" t="e">
+      <c r="H13" s="92" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O18,7,0)</f>
-        <v>#N/A</v>
+        <v>Kevin Castillo</v>
       </c>
       <c r="I13" s="57"/>
       <c r="J13" s="32"/>
@@ -29798,34 +29797,34 @@
     <row r="15" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="18"/>
       <c r="B15" s="25"/>
-      <c r="C15" s="82" t="s">
+      <c r="C15" s="80" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="78" t="str">
+        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O18,3,0)</f>
+        <v>El programa debe Validar credenciales de usuario mediante autenticación</v>
+      </c>
+      <c r="E15" s="70"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="76" t="e">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O18,3,0)</f>
-        <v>#N/A</v>
+      <c r="H15" s="78" t="str">
+        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O18,4,0)</f>
+        <v>Garantizar que solo personal autorizado acceda al sistema</v>
       </c>
-      <c r="E15" s="77"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="82" t="s">
+      <c r="I15" s="76"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="H15" s="76" t="e">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O18,4,0)</f>
-        <v>#N/A</v>
+      <c r="M15" s="83" t="str">
+        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O18,6,0)</f>
+        <v>Diseñar formulario de login con campos usuario/contraseña, implementar validación de credenciales en base de datos.</v>
       </c>
-      <c r="I15" s="85"/>
-      <c r="J15" s="77"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="82" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="87" t="e">
-        <f>VLOOKUP(C10,'Formato descripción HU'!B6:O18,6,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N15" s="85"/>
-      <c r="O15" s="77"/>
+      <c r="N15" s="76"/>
+      <c r="O15" s="70"/>
       <c r="P15" s="29"/>
       <c r="Q15" s="18"/>
       <c r="R15" s="18"/>
@@ -29841,19 +29840,19 @@
     <row r="16" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="18"/>
       <c r="B16" s="25"/>
-      <c r="C16" s="83"/>
-      <c r="D16" s="78"/>
-      <c r="E16" s="79"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="72"/>
       <c r="F16" s="35"/>
-      <c r="G16" s="83"/>
-      <c r="H16" s="78"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="71"/>
       <c r="I16" s="59"/>
-      <c r="J16" s="79"/>
+      <c r="J16" s="72"/>
       <c r="K16" s="35"/>
-      <c r="L16" s="83"/>
-      <c r="M16" s="78"/>
+      <c r="L16" s="81"/>
+      <c r="M16" s="71"/>
       <c r="N16" s="59"/>
-      <c r="O16" s="79"/>
+      <c r="O16" s="72"/>
       <c r="P16" s="29"/>
       <c r="Q16" s="18"/>
       <c r="R16" s="18"/>
@@ -29869,19 +29868,19 @@
     <row r="17" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="18"/>
       <c r="B17" s="25"/>
-      <c r="C17" s="84"/>
-      <c r="D17" s="80"/>
-      <c r="E17" s="81"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="74"/>
       <c r="F17" s="35"/>
-      <c r="G17" s="84"/>
-      <c r="H17" s="80"/>
-      <c r="I17" s="86"/>
-      <c r="J17" s="81"/>
+      <c r="G17" s="82"/>
+      <c r="H17" s="73"/>
+      <c r="I17" s="77"/>
+      <c r="J17" s="74"/>
       <c r="K17" s="35"/>
-      <c r="L17" s="84"/>
-      <c r="M17" s="80"/>
-      <c r="N17" s="86"/>
-      <c r="O17" s="81"/>
+      <c r="L17" s="82"/>
+      <c r="M17" s="73"/>
+      <c r="N17" s="77"/>
+      <c r="O17" s="74"/>
       <c r="P17" s="29"/>
       <c r="Q17" s="18"/>
       <c r="R17" s="18"/>
@@ -29924,42 +29923,42 @@
     </row>
     <row r="19" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="25"/>
-      <c r="C19" s="94" t="s">
-        <v>31</v>
+      <c r="C19" s="90" t="s">
+        <v>30</v>
       </c>
-      <c r="D19" s="77"/>
-      <c r="E19" s="88" t="e">
+      <c r="D19" s="70"/>
+      <c r="E19" s="84" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O18,14,0)</f>
-        <v>#N/A</v>
+        <v xml:space="preserve">Inicio de Sesión </v>
       </c>
-      <c r="F19" s="89"/>
-      <c r="G19" s="89"/>
-      <c r="H19" s="89"/>
-      <c r="I19" s="89"/>
-      <c r="J19" s="89"/>
-      <c r="K19" s="89"/>
-      <c r="L19" s="89"/>
-      <c r="M19" s="89"/>
-      <c r="N19" s="89"/>
-      <c r="O19" s="90"/>
+      <c r="F19" s="85"/>
+      <c r="G19" s="85"/>
+      <c r="H19" s="85"/>
+      <c r="I19" s="85"/>
+      <c r="J19" s="85"/>
+      <c r="K19" s="85"/>
+      <c r="L19" s="85"/>
+      <c r="M19" s="85"/>
+      <c r="N19" s="85"/>
+      <c r="O19" s="86"/>
       <c r="P19" s="29"/>
       <c r="Q19" s="18"/>
     </row>
     <row r="20" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="25"/>
-      <c r="C20" s="80"/>
-      <c r="D20" s="81"/>
-      <c r="E20" s="91"/>
-      <c r="F20" s="92"/>
-      <c r="G20" s="92"/>
-      <c r="H20" s="92"/>
-      <c r="I20" s="92"/>
-      <c r="J20" s="92"/>
-      <c r="K20" s="92"/>
-      <c r="L20" s="92"/>
-      <c r="M20" s="92"/>
-      <c r="N20" s="92"/>
-      <c r="O20" s="93"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="87"/>
+      <c r="F20" s="88"/>
+      <c r="G20" s="88"/>
+      <c r="H20" s="88"/>
+      <c r="I20" s="88"/>
+      <c r="J20" s="88"/>
+      <c r="K20" s="88"/>
+      <c r="L20" s="88"/>
+      <c r="M20" s="88"/>
+      <c r="N20" s="88"/>
+      <c r="O20" s="89"/>
       <c r="P20" s="29"/>
       <c r="Q20" s="18"/>
     </row>
@@ -29984,29 +29983,29 @@
     <row r="22" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="18"/>
       <c r="B22" s="25"/>
-      <c r="C22" s="95" t="s">
-        <v>32</v>
+      <c r="C22" s="69" t="s">
+        <v>31</v>
       </c>
-      <c r="D22" s="77"/>
-      <c r="E22" s="96" t="e">
+      <c r="D22" s="70"/>
+      <c r="E22" s="75" t="str">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O18,12,0)</f>
-        <v>#N/A</v>
+        <v>Ingresar credenciales correctas y verificar acceso, ingresar credenciales incorrectas y verificar mensaje de error, verificar que la contraseña se muestre enmascarada</v>
       </c>
-      <c r="F22" s="85"/>
-      <c r="G22" s="85"/>
-      <c r="H22" s="77"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="70"/>
       <c r="I22" s="28"/>
-      <c r="J22" s="95" t="s">
+      <c r="J22" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="K22" s="77"/>
-      <c r="L22" s="76" t="e">
+      <c r="K22" s="70"/>
+      <c r="L22" s="78">
         <f>VLOOKUP(C10,'Formato descripción HU'!B6:O18,13,0)</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
-      <c r="M22" s="85"/>
-      <c r="N22" s="85"/>
-      <c r="O22" s="77"/>
+      <c r="M22" s="76"/>
+      <c r="N22" s="76"/>
+      <c r="O22" s="70"/>
       <c r="P22" s="29"/>
       <c r="Q22" s="18"/>
       <c r="R22" s="18"/>
@@ -30022,19 +30021,19 @@
     <row r="23" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="18"/>
       <c r="B23" s="25"/>
-      <c r="C23" s="78"/>
-      <c r="D23" s="79"/>
-      <c r="E23" s="78"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="71"/>
       <c r="F23" s="59"/>
       <c r="G23" s="59"/>
-      <c r="H23" s="79"/>
+      <c r="H23" s="72"/>
       <c r="I23" s="28"/>
-      <c r="J23" s="78"/>
-      <c r="K23" s="79"/>
-      <c r="L23" s="78"/>
+      <c r="J23" s="71"/>
+      <c r="K23" s="72"/>
+      <c r="L23" s="71"/>
       <c r="M23" s="59"/>
       <c r="N23" s="59"/>
-      <c r="O23" s="79"/>
+      <c r="O23" s="72"/>
       <c r="P23" s="29"/>
       <c r="Q23" s="18"/>
       <c r="R23" s="18"/>
@@ -30050,19 +30049,19 @@
     <row r="24" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="18"/>
       <c r="B24" s="25"/>
-      <c r="C24" s="80"/>
-      <c r="D24" s="81"/>
-      <c r="E24" s="80"/>
-      <c r="F24" s="86"/>
-      <c r="G24" s="86"/>
-      <c r="H24" s="81"/>
+      <c r="C24" s="73"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="74"/>
       <c r="I24" s="28"/>
-      <c r="J24" s="80"/>
-      <c r="K24" s="81"/>
-      <c r="L24" s="80"/>
-      <c r="M24" s="86"/>
-      <c r="N24" s="86"/>
-      <c r="O24" s="81"/>
+      <c r="J24" s="73"/>
+      <c r="K24" s="74"/>
+      <c r="L24" s="73"/>
+      <c r="M24" s="77"/>
+      <c r="N24" s="77"/>
+      <c r="O24" s="74"/>
       <c r="P24" s="29"/>
       <c r="Q24" s="18"/>
       <c r="R24" s="18"/>
@@ -30121,7 +30120,7 @@
     </row>
     <row r="27" spans="1:26" ht="21" x14ac:dyDescent="0.25">
       <c r="A27" s="18"/>
-      <c r="B27" s="97"/>
+      <c r="B27" s="79"/>
       <c r="C27" s="59"/>
       <c r="D27" s="59"/>
       <c r="E27" s="59"/>
@@ -30206,10 +30205,10 @@
       <c r="B30" s="18"/>
       <c r="C30" s="39"/>
       <c r="D30" s="40"/>
-      <c r="E30" s="98"/>
+      <c r="E30" s="62"/>
       <c r="F30" s="59"/>
       <c r="G30" s="40"/>
-      <c r="H30" s="98"/>
+      <c r="H30" s="62"/>
       <c r="I30" s="59"/>
       <c r="J30" s="18"/>
       <c r="K30" s="18"/>
@@ -30234,10 +30233,10 @@
       <c r="B31" s="18"/>
       <c r="C31" s="39"/>
       <c r="D31" s="41"/>
-      <c r="E31" s="98"/>
+      <c r="E31" s="62"/>
       <c r="F31" s="59"/>
       <c r="G31" s="42"/>
-      <c r="H31" s="98"/>
+      <c r="H31" s="62"/>
       <c r="I31" s="59"/>
       <c r="J31" s="42"/>
       <c r="K31" s="43"/>
@@ -30262,10 +30261,10 @@
       <c r="B32" s="18"/>
       <c r="C32" s="44"/>
       <c r="D32" s="41"/>
-      <c r="E32" s="101"/>
+      <c r="E32" s="60"/>
       <c r="F32" s="59"/>
       <c r="G32" s="42"/>
-      <c r="H32" s="101"/>
+      <c r="H32" s="60"/>
       <c r="I32" s="59"/>
       <c r="J32" s="42"/>
       <c r="K32" s="43"/>
@@ -30296,17 +30295,17 @@
     <row r="34" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="18"/>
       <c r="B34" s="18"/>
-      <c r="C34" s="98"/>
+      <c r="C34" s="62"/>
       <c r="D34" s="63"/>
       <c r="E34" s="59"/>
       <c r="F34" s="45"/>
-      <c r="G34" s="98"/>
+      <c r="G34" s="62"/>
       <c r="H34" s="63"/>
       <c r="I34" s="59"/>
       <c r="J34" s="59"/>
       <c r="K34" s="45"/>
-      <c r="L34" s="98"/>
-      <c r="M34" s="99"/>
+      <c r="L34" s="62"/>
+      <c r="M34" s="67"/>
       <c r="N34" s="59"/>
       <c r="O34" s="59"/>
       <c r="P34" s="18"/>
@@ -30367,9 +30366,9 @@
     </row>
     <row r="38" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="18"/>
-      <c r="C38" s="102"/>
+      <c r="C38" s="66"/>
       <c r="D38" s="59"/>
-      <c r="E38" s="100"/>
+      <c r="E38" s="68"/>
       <c r="F38" s="59"/>
       <c r="G38" s="59"/>
       <c r="H38" s="59"/>
@@ -30419,14 +30418,14 @@
     <row r="41" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="18"/>
       <c r="B41" s="18"/>
-      <c r="C41" s="98"/>
+      <c r="C41" s="62"/>
       <c r="D41" s="59"/>
-      <c r="E41" s="103"/>
+      <c r="E41" s="65"/>
       <c r="F41" s="59"/>
       <c r="G41" s="59"/>
       <c r="H41" s="59"/>
       <c r="I41" s="18"/>
-      <c r="J41" s="98"/>
+      <c r="J41" s="62"/>
       <c r="K41" s="59"/>
       <c r="L41" s="63"/>
       <c r="M41" s="59"/>
@@ -30508,7 +30507,7 @@
     </row>
     <row r="46" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="18"/>
-      <c r="B46" s="66"/>
+      <c r="B46" s="64"/>
       <c r="C46" s="59"/>
       <c r="D46" s="59"/>
       <c r="E46" s="59"/>
@@ -30565,10 +30564,10 @@
       <c r="B49" s="18"/>
       <c r="C49" s="46"/>
       <c r="D49" s="18"/>
-      <c r="E49" s="58"/>
+      <c r="E49" s="61"/>
       <c r="F49" s="59"/>
       <c r="G49" s="18"/>
-      <c r="H49" s="58"/>
+      <c r="H49" s="61"/>
       <c r="I49" s="59"/>
       <c r="J49" s="18"/>
       <c r="K49" s="18"/>
@@ -30583,10 +30582,10 @@
       <c r="B50" s="18"/>
       <c r="C50" s="47"/>
       <c r="D50" s="18"/>
-      <c r="E50" s="68"/>
+      <c r="E50" s="58"/>
       <c r="F50" s="59"/>
       <c r="G50" s="18"/>
-      <c r="H50" s="101"/>
+      <c r="H50" s="60"/>
       <c r="I50" s="59"/>
       <c r="J50" s="18"/>
       <c r="K50" s="18"/>
@@ -30619,10 +30618,10 @@
       <c r="B52" s="18"/>
       <c r="C52" s="46"/>
       <c r="D52" s="18"/>
-      <c r="E52" s="58"/>
+      <c r="E52" s="61"/>
       <c r="F52" s="59"/>
       <c r="G52" s="18"/>
-      <c r="H52" s="58"/>
+      <c r="H52" s="61"/>
       <c r="I52" s="59"/>
       <c r="J52" s="18"/>
       <c r="K52" s="18"/>
@@ -30637,10 +30636,10 @@
       <c r="B53" s="18"/>
       <c r="C53" s="47"/>
       <c r="D53" s="18"/>
-      <c r="E53" s="68"/>
+      <c r="E53" s="58"/>
       <c r="F53" s="59"/>
       <c r="G53" s="18"/>
-      <c r="H53" s="68"/>
+      <c r="H53" s="58"/>
       <c r="I53" s="59"/>
       <c r="J53" s="18"/>
       <c r="K53" s="18"/>
@@ -30671,17 +30670,17 @@
     <row r="55" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="18"/>
       <c r="B55" s="18"/>
-      <c r="C55" s="58"/>
+      <c r="C55" s="61"/>
       <c r="D55" s="63"/>
       <c r="E55" s="59"/>
       <c r="F55" s="18"/>
-      <c r="G55" s="58"/>
-      <c r="H55" s="64"/>
+      <c r="G55" s="61"/>
+      <c r="H55" s="99"/>
       <c r="I55" s="59"/>
       <c r="J55" s="59"/>
       <c r="K55" s="18"/>
-      <c r="L55" s="58"/>
-      <c r="M55" s="60"/>
+      <c r="L55" s="61"/>
+      <c r="M55" s="100"/>
       <c r="N55" s="59"/>
       <c r="O55" s="59"/>
       <c r="P55" s="18"/>
@@ -30743,9 +30742,9 @@
     <row r="59" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="18"/>
       <c r="B59" s="18"/>
-      <c r="C59" s="62"/>
+      <c r="C59" s="97"/>
       <c r="D59" s="59"/>
-      <c r="E59" s="61"/>
+      <c r="E59" s="98"/>
       <c r="F59" s="59"/>
       <c r="G59" s="59"/>
       <c r="H59" s="59"/>
@@ -30797,16 +30796,16 @@
     <row r="62" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="18"/>
       <c r="B62" s="18"/>
-      <c r="C62" s="58"/>
+      <c r="C62" s="61"/>
       <c r="D62" s="59"/>
-      <c r="E62" s="67"/>
+      <c r="E62" s="101"/>
       <c r="F62" s="59"/>
       <c r="G62" s="59"/>
       <c r="H62" s="59"/>
       <c r="I62" s="18"/>
-      <c r="J62" s="58"/>
+      <c r="J62" s="61"/>
       <c r="K62" s="59"/>
-      <c r="L62" s="65"/>
+      <c r="L62" s="103"/>
       <c r="M62" s="59"/>
       <c r="N62" s="59"/>
       <c r="O62" s="59"/>
@@ -30869,7 +30868,7 @@
     <row r="66" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="67" spans="1:16" ht="9.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="18"/>
-      <c r="B67" s="66"/>
+      <c r="B67" s="64"/>
       <c r="C67" s="59"/>
       <c r="D67" s="59"/>
       <c r="E67" s="59"/>
@@ -30887,7 +30886,7 @@
     </row>
     <row r="68" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="18"/>
-      <c r="B68" s="66"/>
+      <c r="B68" s="64"/>
       <c r="C68" s="59"/>
       <c r="D68" s="59"/>
       <c r="E68" s="59"/>
@@ -30944,10 +30943,10 @@
       <c r="B71" s="18"/>
       <c r="C71" s="46"/>
       <c r="D71" s="18"/>
-      <c r="E71" s="58"/>
+      <c r="E71" s="61"/>
       <c r="F71" s="59"/>
       <c r="G71" s="18"/>
-      <c r="H71" s="58"/>
+      <c r="H71" s="61"/>
       <c r="I71" s="59"/>
       <c r="J71" s="18"/>
       <c r="K71" s="18"/>
@@ -30962,10 +30961,10 @@
       <c r="B72" s="18"/>
       <c r="C72" s="46"/>
       <c r="D72" s="18"/>
-      <c r="E72" s="58"/>
+      <c r="E72" s="61"/>
       <c r="F72" s="59"/>
       <c r="G72" s="18"/>
-      <c r="H72" s="58"/>
+      <c r="H72" s="61"/>
       <c r="I72" s="59"/>
       <c r="J72" s="18"/>
       <c r="K72" s="18"/>
@@ -30980,10 +30979,10 @@
       <c r="B73" s="18"/>
       <c r="C73" s="47"/>
       <c r="D73" s="18"/>
-      <c r="E73" s="68"/>
+      <c r="E73" s="58"/>
       <c r="F73" s="59"/>
       <c r="G73" s="18"/>
-      <c r="H73" s="68"/>
+      <c r="H73" s="58"/>
       <c r="I73" s="59"/>
       <c r="J73" s="18"/>
       <c r="K73" s="18"/>
@@ -31014,17 +31013,17 @@
     <row r="75" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="18"/>
       <c r="B75" s="18"/>
-      <c r="C75" s="58"/>
-      <c r="D75" s="70"/>
+      <c r="C75" s="61"/>
+      <c r="D75" s="102"/>
       <c r="E75" s="59"/>
       <c r="F75" s="18"/>
-      <c r="G75" s="58"/>
-      <c r="H75" s="64"/>
+      <c r="G75" s="61"/>
+      <c r="H75" s="99"/>
       <c r="I75" s="59"/>
       <c r="J75" s="59"/>
       <c r="K75" s="18"/>
-      <c r="L75" s="58"/>
-      <c r="M75" s="60"/>
+      <c r="L75" s="61"/>
+      <c r="M75" s="100"/>
       <c r="N75" s="59"/>
       <c r="O75" s="59"/>
       <c r="P75" s="18"/>
@@ -31086,9 +31085,9 @@
     <row r="79" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="18"/>
       <c r="B79" s="18"/>
-      <c r="C79" s="62"/>
+      <c r="C79" s="97"/>
       <c r="D79" s="59"/>
-      <c r="E79" s="61"/>
+      <c r="E79" s="98"/>
       <c r="F79" s="59"/>
       <c r="G79" s="59"/>
       <c r="H79" s="59"/>
@@ -31140,16 +31139,16 @@
     <row r="82" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="18"/>
       <c r="B82" s="18"/>
-      <c r="C82" s="58"/>
+      <c r="C82" s="61"/>
       <c r="D82" s="59"/>
-      <c r="E82" s="67"/>
+      <c r="E82" s="101"/>
       <c r="F82" s="59"/>
       <c r="G82" s="59"/>
       <c r="H82" s="59"/>
       <c r="I82" s="18"/>
-      <c r="J82" s="58"/>
+      <c r="J82" s="61"/>
       <c r="K82" s="59"/>
-      <c r="L82" s="69"/>
+      <c r="L82" s="95"/>
       <c r="M82" s="59"/>
       <c r="N82" s="59"/>
       <c r="O82" s="59"/>
@@ -31213,7 +31212,7 @@
     </row>
     <row r="87" spans="1:16" ht="21" x14ac:dyDescent="0.4">
       <c r="A87" s="18"/>
-      <c r="B87" s="66"/>
+      <c r="B87" s="64"/>
       <c r="C87" s="59"/>
       <c r="D87" s="59"/>
       <c r="E87" s="59"/>
@@ -31270,10 +31269,10 @@
       <c r="B90" s="18"/>
       <c r="C90" s="46"/>
       <c r="D90" s="18"/>
-      <c r="E90" s="58"/>
+      <c r="E90" s="61"/>
       <c r="F90" s="59"/>
       <c r="G90" s="18"/>
-      <c r="H90" s="58"/>
+      <c r="H90" s="61"/>
       <c r="I90" s="59"/>
       <c r="J90" s="18"/>
       <c r="K90" s="18"/>
@@ -31288,10 +31287,10 @@
       <c r="B91" s="18"/>
       <c r="C91" s="47"/>
       <c r="D91" s="18"/>
-      <c r="E91" s="68"/>
+      <c r="E91" s="58"/>
       <c r="F91" s="59"/>
       <c r="G91" s="18"/>
-      <c r="H91" s="68"/>
+      <c r="H91" s="58"/>
       <c r="I91" s="59"/>
       <c r="J91" s="18"/>
       <c r="K91" s="18"/>
@@ -31322,17 +31321,17 @@
     <row r="93" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="18"/>
       <c r="B93" s="18"/>
-      <c r="C93" s="58"/>
-      <c r="D93" s="64"/>
+      <c r="C93" s="61"/>
+      <c r="D93" s="99"/>
       <c r="E93" s="59"/>
       <c r="F93" s="18"/>
-      <c r="G93" s="58"/>
-      <c r="H93" s="64"/>
+      <c r="G93" s="61"/>
+      <c r="H93" s="99"/>
       <c r="I93" s="59"/>
       <c r="J93" s="59"/>
       <c r="K93" s="18"/>
-      <c r="L93" s="58"/>
-      <c r="M93" s="71"/>
+      <c r="L93" s="61"/>
+      <c r="M93" s="96"/>
       <c r="N93" s="59"/>
       <c r="O93" s="59"/>
       <c r="P93" s="18"/>
@@ -31394,9 +31393,9 @@
     <row r="97" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="18"/>
       <c r="B97" s="18"/>
-      <c r="C97" s="62"/>
+      <c r="C97" s="97"/>
       <c r="D97" s="59"/>
-      <c r="E97" s="61"/>
+      <c r="E97" s="98"/>
       <c r="F97" s="59"/>
       <c r="G97" s="59"/>
       <c r="H97" s="59"/>
@@ -31448,16 +31447,16 @@
     <row r="100" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="18"/>
       <c r="B100" s="18"/>
-      <c r="C100" s="58"/>
+      <c r="C100" s="61"/>
       <c r="D100" s="59"/>
-      <c r="E100" s="72"/>
+      <c r="E100" s="94"/>
       <c r="F100" s="59"/>
       <c r="G100" s="59"/>
       <c r="H100" s="59"/>
       <c r="I100" s="18"/>
-      <c r="J100" s="58"/>
+      <c r="J100" s="61"/>
       <c r="K100" s="59"/>
-      <c r="L100" s="69"/>
+      <c r="L100" s="95"/>
       <c r="M100" s="59"/>
       <c r="N100" s="59"/>
       <c r="O100" s="59"/>
@@ -31534,7 +31533,7 @@
       <c r="P104" s="18"/>
     </row>
     <row r="105" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B105" s="66"/>
+      <c r="B105" s="64"/>
       <c r="C105" s="59"/>
       <c r="D105" s="59"/>
       <c r="E105" s="59"/>
@@ -32460,60 +32459,38 @@
     <row r="1013" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="99">
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="J41:K43"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="L41:O43"/>
-    <mergeCell ref="B46:P46"/>
-    <mergeCell ref="E41:H43"/>
-    <mergeCell ref="E49:F49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="D34:E36"/>
-    <mergeCell ref="G34:G36"/>
-    <mergeCell ref="C38:D39"/>
-    <mergeCell ref="C41:D43"/>
-    <mergeCell ref="H34:J36"/>
-    <mergeCell ref="L34:L36"/>
-    <mergeCell ref="M34:O36"/>
-    <mergeCell ref="E38:O39"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="C22:D24"/>
-    <mergeCell ref="E22:H24"/>
-    <mergeCell ref="J22:K24"/>
-    <mergeCell ref="L22:O24"/>
-    <mergeCell ref="B27:P27"/>
-    <mergeCell ref="L15:L17"/>
-    <mergeCell ref="M15:O17"/>
-    <mergeCell ref="E19:O20"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="D15:E17"/>
-    <mergeCell ref="G15:G17"/>
-    <mergeCell ref="H15:J17"/>
-    <mergeCell ref="B6:P6"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="C100:D102"/>
-    <mergeCell ref="E100:H102"/>
-    <mergeCell ref="J100:K102"/>
-    <mergeCell ref="L100:O102"/>
-    <mergeCell ref="B105:P105"/>
+    <mergeCell ref="L55:L57"/>
+    <mergeCell ref="M55:O57"/>
+    <mergeCell ref="E59:O60"/>
+    <mergeCell ref="C55:C57"/>
+    <mergeCell ref="C59:D60"/>
+    <mergeCell ref="D55:E57"/>
+    <mergeCell ref="G55:G57"/>
+    <mergeCell ref="H55:J57"/>
+    <mergeCell ref="C62:D64"/>
+    <mergeCell ref="J62:K64"/>
+    <mergeCell ref="L62:O64"/>
+    <mergeCell ref="B67:P67"/>
+    <mergeCell ref="B68:P68"/>
+    <mergeCell ref="E62:H64"/>
+    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="M75:O77"/>
+    <mergeCell ref="E79:O80"/>
+    <mergeCell ref="C79:D80"/>
+    <mergeCell ref="C82:D84"/>
+    <mergeCell ref="E82:H84"/>
+    <mergeCell ref="J82:K84"/>
+    <mergeCell ref="L82:O84"/>
+    <mergeCell ref="C75:C77"/>
+    <mergeCell ref="D75:E77"/>
+    <mergeCell ref="G75:G77"/>
+    <mergeCell ref="H75:J77"/>
+    <mergeCell ref="L75:L77"/>
     <mergeCell ref="B87:P87"/>
     <mergeCell ref="H90:I90"/>
     <mergeCell ref="L93:L95"/>
@@ -32527,38 +32504,60 @@
     <mergeCell ref="D93:E95"/>
     <mergeCell ref="G93:G95"/>
     <mergeCell ref="H93:J95"/>
-    <mergeCell ref="M75:O77"/>
-    <mergeCell ref="E79:O80"/>
-    <mergeCell ref="C79:D80"/>
-    <mergeCell ref="C82:D84"/>
-    <mergeCell ref="E82:H84"/>
-    <mergeCell ref="J82:K84"/>
-    <mergeCell ref="L82:O84"/>
-    <mergeCell ref="C75:C77"/>
-    <mergeCell ref="D75:E77"/>
-    <mergeCell ref="G75:G77"/>
-    <mergeCell ref="H75:J77"/>
-    <mergeCell ref="L75:L77"/>
-    <mergeCell ref="E71:F71"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="C62:D64"/>
-    <mergeCell ref="J62:K64"/>
-    <mergeCell ref="L62:O64"/>
-    <mergeCell ref="B67:P67"/>
-    <mergeCell ref="B68:P68"/>
-    <mergeCell ref="E62:H64"/>
-    <mergeCell ref="L55:L57"/>
-    <mergeCell ref="M55:O57"/>
-    <mergeCell ref="E59:O60"/>
-    <mergeCell ref="C55:C57"/>
-    <mergeCell ref="C59:D60"/>
-    <mergeCell ref="D55:E57"/>
-    <mergeCell ref="G55:G57"/>
-    <mergeCell ref="H55:J57"/>
+    <mergeCell ref="C100:D102"/>
+    <mergeCell ref="E100:H102"/>
+    <mergeCell ref="J100:K102"/>
+    <mergeCell ref="L100:O102"/>
+    <mergeCell ref="B105:P105"/>
+    <mergeCell ref="B6:P6"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="D15:E17"/>
+    <mergeCell ref="G15:G17"/>
+    <mergeCell ref="H15:J17"/>
+    <mergeCell ref="L15:L17"/>
+    <mergeCell ref="M15:O17"/>
+    <mergeCell ref="E19:O20"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="C22:D24"/>
+    <mergeCell ref="E22:H24"/>
+    <mergeCell ref="J22:K24"/>
+    <mergeCell ref="L22:O24"/>
+    <mergeCell ref="B27:P27"/>
+    <mergeCell ref="H34:J36"/>
+    <mergeCell ref="L34:L36"/>
+    <mergeCell ref="M34:O36"/>
+    <mergeCell ref="E38:O39"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="D34:E36"/>
+    <mergeCell ref="G34:G36"/>
+    <mergeCell ref="C38:D39"/>
+    <mergeCell ref="C41:D43"/>
+    <mergeCell ref="L41:O43"/>
+    <mergeCell ref="B46:P46"/>
+    <mergeCell ref="E41:H43"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="J41:K43"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="H53:I53"/>
   </mergeCells>
   <conditionalFormatting sqref="H10:I11 H50">
     <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
